--- a/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2C_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.2307910247102554</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07798732060351096</v>
+        <v>0.07798732060351098</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2104213267908291</v>
@@ -697,7 +697,7 @@
         <v>0.2752377920559514</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.0940237961198349</v>
+        <v>0.09402379611983487</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1554245320182386</v>
+        <v>0.1579908405551611</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2992832663160332</v>
+        <v>0.3057198287361715</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1857889011488676</v>
+        <v>0.1890330270892577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04372179284373914</v>
+        <v>0.04431921221551759</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1767858397828817</v>
+        <v>0.1744571272223981</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4084203245834618</v>
+        <v>0.4060057650464475</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2757457526281512</v>
+        <v>0.2777876920724644</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0706309484455498</v>
+        <v>0.06908789137731046</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1749810916191727</v>
+        <v>0.1767366480271948</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3673788864821167</v>
+        <v>0.3686210739520895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2428617008291419</v>
+        <v>0.2445900900428418</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06674341565554121</v>
+        <v>0.06703473413965813</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2258031866132651</v>
+        <v>0.2266873836703693</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3961455658326172</v>
+        <v>0.3924472048423789</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2715415215759994</v>
+        <v>0.271926321788473</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1254296645183621</v>
+        <v>0.1230304087825987</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2502351102737614</v>
+        <v>0.2507329999357786</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.503082314666025</v>
+        <v>0.5024002228294583</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3718645225240351</v>
+        <v>0.3745306653681168</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1609219160759349</v>
+        <v>0.1563613644243773</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2252778397109657</v>
+        <v>0.2271507943735682</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4348294618034354</v>
+        <v>0.4354952094108051</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3047808071826036</v>
+        <v>0.3076607370563201</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1257332896846483</v>
+        <v>0.1259557475601518</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2627855087674172</v>
+        <v>0.264336188264581</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3524238525110271</v>
+        <v>0.3548235657100373</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3401553673608437</v>
+        <v>0.3431407489645262</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09789030343861421</v>
+        <v>0.09873500307888715</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.4729320668946728</v>
+        <v>0.4706547695909197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.626912753025245</v>
+        <v>0.6244566032445665</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.5352442793389643</v>
+        <v>0.5361714769905195</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1765534339377675</v>
+        <v>0.1776988670296326</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3690899996088421</v>
+        <v>0.367366975646054</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.494279260584078</v>
+        <v>0.4916616120989345</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.4480324791702716</v>
+        <v>0.4480661591592999</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1523657186234879</v>
+        <v>0.1482989995445919</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3312940249771802</v>
+        <v>0.3358003980698772</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4276837963349301</v>
+        <v>0.4308725148044626</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4231334295289243</v>
+        <v>0.4196185815764108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1824636530194849</v>
+        <v>0.1842242388674967</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.5541773477134656</v>
+        <v>0.5521957874612472</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.704643654299567</v>
+        <v>0.70478272295232</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6160605565456894</v>
+        <v>0.6185578046541585</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2543548972695875</v>
+        <v>0.250644393750677</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4215984188106457</v>
+        <v>0.4209018008238262</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.549179712939978</v>
+        <v>0.5471078593602966</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5057794462648346</v>
+        <v>0.5039801572767785</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2076588341057402</v>
+        <v>0.2066432197987654</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.5562000929124</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2073806429540937</v>
+        <v>0.2073806429540938</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.5893642000644103</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5129885824629227</v>
+        <v>0.5141401202800895</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7053352253879925</v>
+        <v>0.7030977804615685</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.517797312038051</v>
+        <v>0.5192730657412085</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1742260050335727</v>
+        <v>0.1734192709180533</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5542704803326928</v>
+        <v>0.5524058027312596</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7853927909283779</v>
+        <v>0.7837387707820493</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6214319623383162</v>
+        <v>0.6197999774695807</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2125352311393842</v>
+        <v>0.2097579546455091</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5454781144543768</v>
+        <v>0.54374094147413</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7543467912641557</v>
+        <v>0.754505894020801</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5781670110547787</v>
+        <v>0.5768389444529863</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2008992805917618</v>
+        <v>0.2006183926471476</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5942745168349344</v>
+        <v>0.5925073185612255</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7765352087019045</v>
+        <v>0.776053536770013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5960536261245348</v>
+        <v>0.5977955873928467</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2446354048548015</v>
+        <v>0.2425975534233361</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6275068986045376</v>
+        <v>0.6271659125625554</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8433574699015648</v>
+        <v>0.8456547499532654</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6915322838453287</v>
+        <v>0.6935119569220473</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2725992083540478</v>
+        <v>0.2715222859060293</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6018753236294714</v>
+        <v>0.5995602044889298</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8036690564752796</v>
+        <v>0.8017502416656592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6338560552864906</v>
+        <v>0.632142352586094</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2468251827193883</v>
+        <v>0.2481265555610936</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.3103333848317001</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1498989796137265</v>
+        <v>0.1498989796137266</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2843421107062244</v>
+        <v>0.2825500812077634</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4845509709845351</v>
+        <v>0.4830345722835588</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2712212609737188</v>
+        <v>0.27065409348768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1219162496173172</v>
+        <v>0.1219572664452737</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2187793814998898</v>
+        <v>0.2126220857178041</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.4090015880796007</v>
+        <v>0.4074996867874188</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2759529846388892</v>
+        <v>0.2746712796279217</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1319850115865751</v>
+        <v>0.1305018276811428</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2587053487131495</v>
+        <v>0.2618465571295923</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.457425472888784</v>
+        <v>0.4591257814266685</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2848677719159216</v>
+        <v>0.2835739916050177</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1330561034749955</v>
+        <v>0.1331792118615709</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3686565786663907</v>
+        <v>0.3669224075654905</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5718334426759443</v>
+        <v>0.5665091890790752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3478913067592832</v>
+        <v>0.3452336114266083</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1768904654285736</v>
+        <v>0.1781536024242512</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2960466023553573</v>
+        <v>0.2881665602954308</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4891622467371933</v>
+        <v>0.4911239159000941</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.347766002152277</v>
+        <v>0.3462139664353283</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1760296738263975</v>
+        <v>0.1735624275927981</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3149461785386799</v>
+        <v>0.3195472794690072</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.5156020439086826</v>
+        <v>0.5191919716369408</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3358322405313228</v>
+        <v>0.3362445837502427</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1690071514565998</v>
+        <v>0.1669040295875603</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1289512676326127</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08528144673558255</v>
+        <v>0.08528144673558256</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1870476971845379</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.08712998941677907</v>
+        <v>0.08729056370236109</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2278867590590309</v>
+        <v>0.2212703619128766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09742142816183363</v>
+        <v>0.09961966691503769</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0668261612755706</v>
+        <v>0.06575963682273533</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1503967701061255</v>
+        <v>0.1518260557779802</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1952084370302113</v>
+        <v>0.1973275664709206</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1182143775071533</v>
+        <v>0.1154616406353548</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.08956477910352699</v>
+        <v>0.0882016417132379</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1296370576428485</v>
+        <v>0.1294199766065257</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2206232228535135</v>
+        <v>0.2187803898349694</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1166903297431867</v>
+        <v>0.1161311074849223</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.08317236362835508</v>
+        <v>0.08206347099045577</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1562796538512936</v>
+        <v>0.1498247252106618</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3171983968927368</v>
+        <v>0.3129818039688526</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1622824277968089</v>
+        <v>0.1632322042834665</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1109066067658399</v>
+        <v>0.1091891895489119</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2279692513518735</v>
+        <v>0.2306029844920832</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2791397401304386</v>
+        <v>0.2866547672871419</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1844355806440517</v>
+        <v>0.1830649992277249</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1272242571220792</v>
+        <v>0.1273166350946554</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1813382375608614</v>
+        <v>0.180125458844206</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2816866914571453</v>
+        <v>0.2813537818775569</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1623172396794777</v>
+        <v>0.1630660991325735</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1119335099171176</v>
+        <v>0.1114813706557961</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.07282290827137407</v>
+        <v>0.07283069779617432</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1883085306250218</v>
+        <v>0.1876587762944551</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.08148139658843363</v>
+        <v>0.08089167568707606</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.06613530927872109</v>
+        <v>0.06571190702857191</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1371795977090641</v>
+        <v>0.1362423675602418</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2158370688811158</v>
+        <v>0.2153228735297044</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1339213964412942</v>
+        <v>0.1322656223196678</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09658545383627634</v>
+        <v>0.09697085099867606</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1180692825039658</v>
+        <v>0.1149867335917548</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2143849610348068</v>
+        <v>0.2175093718607269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1202306299177492</v>
+        <v>0.1182999949538413</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08721204213155102</v>
+        <v>0.08737471127414161</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1427363740215229</v>
+        <v>0.146305085384777</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2913443871459652</v>
+        <v>0.2888705862043455</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1510022864775702</v>
+        <v>0.150016167021857</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1097751732636006</v>
+        <v>0.1108760774550728</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2154607180584267</v>
+        <v>0.2120696889722022</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3064790907683714</v>
+        <v>0.3087291600877933</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.217218775712416</v>
+        <v>0.2143577347414512</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1419529696310054</v>
+        <v>0.1426828987769169</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1703462032103826</v>
+        <v>0.1700028643538959</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2850773857925176</v>
+        <v>0.2859177600900762</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.170482266640149</v>
+        <v>0.1713843264806149</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1185125457588381</v>
+        <v>0.1191479358909568</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3672503691576133</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3137860408054373</v>
+        <v>0.3137860408054372</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2242793955416905</v>
@@ -1513,7 +1513,7 @@
         <v>0.3289901497807363</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.2710422016201564</v>
+        <v>0.2710422016201562</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1683432585123836</v>
+        <v>0.1702720239650188</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.309409280935727</v>
+        <v>0.3000696318013641</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2206500076722562</v>
+        <v>0.2201909636054905</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1720038954204585</v>
+        <v>0.1700631140773983</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1792267787933559</v>
+        <v>0.182874945870289</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4115034371368035</v>
+        <v>0.420692497923558</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3135325505463224</v>
+        <v>0.3106785708153445</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2829251643603731</v>
+        <v>0.2815401690057687</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.189788583105097</v>
+        <v>0.190941215535235</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3867264184105648</v>
+        <v>0.3850073488292169</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2871904241581962</v>
+        <v>0.2889614686504829</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2458367701337113</v>
+        <v>0.2486585366538316</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2801852893529372</v>
+        <v>0.2815293192824055</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4341941589077092</v>
+        <v>0.4350157786189784</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3231405399042409</v>
+        <v>0.3182336064950412</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2466536221038731</v>
+        <v>0.2475337062841388</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.269596836373785</v>
+        <v>0.2835489009914705</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5242350564254309</v>
+        <v>0.5249394211464952</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4243813340613146</v>
+        <v>0.4174214937165127</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3473070710258078</v>
+        <v>0.3460055640825775</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2635011894387476</v>
+        <v>0.2644316598163289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4686638112256096</v>
+        <v>0.4700824987165051</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3676659528527513</v>
+        <v>0.3689850128063069</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2946971641000758</v>
+        <v>0.2989276217948318</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.3875265367147412</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.3188761714903631</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>76790</v>
+        <v>78058</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>135918</v>
+        <v>138841</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>77932</v>
+        <v>79292</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>17829</v>
+        <v>18073</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>82645</v>
+        <v>81557</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>175715</v>
+        <v>174676</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>109128</v>
+        <v>109936</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>25605</v>
+        <v>25045</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>168254</v>
+        <v>169942</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>324901</v>
+        <v>326000</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>197985</v>
+        <v>199394</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>51413</v>
+        <v>51637</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>111561</v>
+        <v>111998</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>179908</v>
+        <v>178228</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>113902</v>
+        <v>114063</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>51149</v>
+        <v>50171</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>116982</v>
+        <v>117215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>216441</v>
+        <v>216148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>147167</v>
+        <v>148222</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>58336</v>
+        <v>56683</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>216617</v>
+        <v>218418</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>384553</v>
+        <v>385142</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>248463</v>
+        <v>250811</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>96853</v>
+        <v>97024</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>193276</v>
+        <v>194416</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>242146</v>
+        <v>243795</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>200860</v>
+        <v>202623</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>46683</v>
+        <v>47086</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>295816</v>
+        <v>294392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>382577</v>
+        <v>381078</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>301634</v>
+        <v>302156</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>88583</v>
+        <v>89157</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>502325</v>
+        <v>499980</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>641249</v>
+        <v>637853</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>517047</v>
+        <v>517086</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>149109</v>
+        <v>145129</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>243663</v>
+        <v>246977</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>293856</v>
+        <v>296047</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>249859</v>
+        <v>247783</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>87015</v>
+        <v>87855</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>346635</v>
+        <v>345395</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>430012</v>
+        <v>430097</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>347177</v>
+        <v>348585</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>127618</v>
+        <v>125757</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>573788</v>
+        <v>572840</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>712474</v>
+        <v>709786</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>583690</v>
+        <v>581613</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>203220</v>
+        <v>202226</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>327629</v>
+        <v>328365</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>480942</v>
+        <v>479416</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>346457</v>
+        <v>347444</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>108166</v>
+        <v>107665</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>382305</v>
+        <v>381019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>558296</v>
+        <v>557121</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>411006</v>
+        <v>409927</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>132450</v>
+        <v>130720</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>724620</v>
+        <v>722312</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1050588</v>
+        <v>1050809</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>769241</v>
+        <v>767474</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>249925</v>
+        <v>249575</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>379544</v>
+        <v>378415</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>529491</v>
+        <v>529162</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>398818</v>
+        <v>399983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>151879</v>
+        <v>150614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>432819</v>
+        <v>432584</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>599501</v>
+        <v>601134</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>457370</v>
+        <v>458679</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>169882</v>
+        <v>169211</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>799538</v>
+        <v>796463</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1119280</v>
+        <v>1116607</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>843335</v>
+        <v>841055</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>307058</v>
+        <v>308677</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>147615</v>
+        <v>146685</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>297813</v>
+        <v>296881</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>175222</v>
+        <v>174856</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>85417</v>
+        <v>85445</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>112812</v>
+        <v>109637</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>252026</v>
+        <v>251101</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>179115</v>
+        <v>178283</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>97258</v>
+        <v>96165</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>267705</v>
+        <v>270956</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>563007</v>
+        <v>565099</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>368939</v>
+        <v>367264</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>191269</v>
+        <v>191446</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>191387</v>
+        <v>190487</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>351459</v>
+        <v>348186</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>224754</v>
+        <v>223037</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>123932</v>
+        <v>124817</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>152654</v>
+        <v>148591</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>301421</v>
+        <v>302630</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>225727</v>
+        <v>224720</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>129714</v>
+        <v>127896</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>325903</v>
+        <v>330664</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>634611</v>
+        <v>639030</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>434945</v>
+        <v>435479</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>242948</v>
+        <v>239925</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>33694</v>
+        <v>33756</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97861</v>
+        <v>95020</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>46559</v>
+        <v>47610</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>40720</v>
+        <v>40070</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>60758</v>
+        <v>61336</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>87414</v>
+        <v>88363</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>58735</v>
+        <v>57367</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>54532</v>
+        <v>53702</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>102504</v>
+        <v>102332</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>193537</v>
+        <v>191921</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>113746</v>
+        <v>113201</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>101321</v>
+        <v>99970</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>60435</v>
+        <v>57939</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>136214</v>
+        <v>134403</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>77558</v>
+        <v>78012</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>67580</v>
+        <v>66534</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>92096</v>
+        <v>93160</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>124999</v>
+        <v>128364</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>91637</v>
+        <v>90956</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>77461</v>
+        <v>77517</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>143383</v>
+        <v>142424</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>247104</v>
+        <v>246812</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>158221</v>
+        <v>158951</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>136358</v>
+        <v>135807</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>21307</v>
+        <v>21309</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>58335</v>
+        <v>58134</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>27242</v>
+        <v>27045</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26922</v>
+        <v>26750</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>47044</v>
+        <v>46722</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>76405</v>
+        <v>76223</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50590</v>
+        <v>49965</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>42417</v>
+        <v>42586</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>75035</v>
+        <v>73076</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>142305</v>
+        <v>144379</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>85615</v>
+        <v>84240</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>73803</v>
+        <v>73940</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>41762</v>
+        <v>42806</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>90254</v>
+        <v>89488</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>50485</v>
+        <v>50155</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>44687</v>
+        <v>45135</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>73889</v>
+        <v>72726</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>108492</v>
+        <v>109289</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82057</v>
+        <v>80976</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>62341</v>
+        <v>62661</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>108258</v>
+        <v>108040</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>189229</v>
+        <v>189787</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>121399</v>
+        <v>122041</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>100291</v>
+        <v>100828</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>35332</v>
+        <v>35737</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>77306</v>
+        <v>74973</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>56707</v>
+        <v>56589</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>53355</v>
+        <v>52753</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>59845</v>
+        <v>61063</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>160066</v>
+        <v>163641</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>125466</v>
+        <v>124324</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>131450</v>
+        <v>130806</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>103205</v>
+        <v>103832</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>247052</v>
+        <v>245954</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>188732</v>
+        <v>189896</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>190476</v>
+        <v>192662</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>58806</v>
+        <v>59088</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>108484</v>
+        <v>108689</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>83046</v>
+        <v>81785</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>76511</v>
+        <v>76784</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>90021</v>
+        <v>94679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>203916</v>
+        <v>204190</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>169824</v>
+        <v>167039</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>161362</v>
+        <v>160757</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>143290</v>
+        <v>143796</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>299397</v>
+        <v>300303</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>241618</v>
+        <v>242485</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>228333</v>
+        <v>231611</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
     </row>
     <row r="36">
